--- a/中文/空白人物卡.xlsx
+++ b/中文/空白人物卡.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\中文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F09E5-892D-43A5-994C-61E422DB2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D5FD0-3E03-4E56-9BEA-7D9CF1252545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,20 +279,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +574,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="B7" sqref="B7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,22 +590,22 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="8">
         <f>(E2/F2)%</f>
         <v>0.01</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -642,13 +638,13 @@
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -679,21 +675,21 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6">
-        <f>10+IF(G7="重甲",0,E15)+H7</f>
+        <f>10+IF(G7="重甲",0,E15)+H7+IF(H9&gt;0,G9,0)</f>
         <v>12</v>
       </c>
       <c r="F6" t="s">
@@ -707,13 +703,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="G7" t="s">
         <v>48</v>
       </c>
@@ -722,11 +718,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>20</v>
       </c>
@@ -738,18 +734,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -761,18 +757,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>47</v>
       </c>
@@ -818,10 +814,10 @@
         <f>D14-5</f>
         <v>2</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -841,14 +837,14 @@
         <f t="shared" ref="E15:E19" si="1">D15-5</f>
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -868,10 +864,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -894,13 +890,13 @@
       <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -920,9 +916,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -942,20 +937,18 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -964,145 +957,134 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1116,80 +1098,64 @@
         <v>33</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1198,21 +1164,10 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B7:E11"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="A7:A11"/>
@@ -1227,10 +1182,21 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B7:E11"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">

--- a/中文/空白人物卡.xlsx
+++ b/中文/空白人物卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\中文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D5FD0-3E03-4E56-9BEA-7D9CF1252545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7B242-E76B-4F47-A413-F357A311F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护甲名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,14 @@
   </si>
   <si>
     <t>轻甲</t>
+  </si>
+  <si>
+    <t>背景1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -282,13 +286,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,13 +603,13 @@
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="6">
         <f>(E2/F2)%</f>
         <v>0.01</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -638,13 +642,13 @@
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -673,7 +677,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -689,29 +693,29 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6">
-        <f>10+IF(G7="重甲",0,E15)+H7+IF(H9&gt;0,G9,0)</f>
+        <f>10+IF(G7="重甲",0,E14)+H7+IF(H9&gt;0,G9,0)</f>
         <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -719,10 +723,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" t="s">
         <v>20</v>
       </c>
@@ -734,20 +738,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -757,20 +763,30 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -781,38 +797,40 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>B13+C13</f>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f>D13-5</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <f>B14+C14</f>
-        <v>7</v>
+        <f t="shared" ref="D14:D18" si="0">B14+C14</f>
+        <v>6</v>
       </c>
       <c r="E14">
-        <f>D14-5</f>
-        <v>2</v>
+        <f t="shared" ref="E14:E18" si="1">D14-5</f>
+        <v>1</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -821,7 +839,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -830,39 +848,39 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D19" si="0">B15+C15</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E19" si="1">D15-5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -871,7 +889,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -891,213 +909,199 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>-1</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1155,22 +1159,15 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
@@ -1181,22 +1178,22 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B7:E11"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">
@@ -1254,7 +1251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B31" xr:uid="{B8830A7F-4212-4931-B144-E01FA84439BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B30" xr:uid="{B8830A7F-4212-4931-B144-E01FA84439BE}">
       <formula1>"体,智,道"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{78B68E37-4402-4B18-B9D6-F0FCDF14523C}">

--- a/中文/空白人物卡.xlsx
+++ b/中文/空白人物卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\中文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7B242-E76B-4F47-A413-F357A311F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B05BE-B83E-46FB-8813-F98E8C1EE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盾牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +214,14 @@
   </si>
   <si>
     <t>背景2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,13 +286,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +578,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,6 +586,8 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
@@ -598,18 +600,18 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8">
         <f>(E2/F2)%</f>
         <v>0.01</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -621,10 +623,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,33 +639,35 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -677,7 +681,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -694,72 +698,72 @@
       <c r="D6" s="7"/>
       <c r="E6">
         <f>10+IF(G7="重甲",0,E14)+H7+IF(H9&gt;0,G9,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -777,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -786,13 +790,13 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,31 +846,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -889,7 +893,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -906,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -934,8 +938,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -943,134 +947,134 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1078,21 +1082,21 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1161,11 +1165,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
@@ -1181,19 +1193,11 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">
